--- a/Code/Results/Cases/Case_1_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.42206474563778</v>
+        <v>12.93024956307966</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.103672169429191</v>
+        <v>4.664589018196449</v>
       </c>
       <c r="E2">
-        <v>12.01593675524224</v>
+        <v>18.89347335491468</v>
       </c>
       <c r="F2">
-        <v>15.77070160132776</v>
+        <v>21.92062565984711</v>
       </c>
       <c r="G2">
-        <v>18.62394316897421</v>
+        <v>24.64875663200993</v>
       </c>
       <c r="H2">
-        <v>7.99803871107587</v>
+        <v>13.32483823795075</v>
       </c>
       <c r="I2">
-        <v>16.32121175856257</v>
+        <v>26.27469423851406</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.57302659911374</v>
+        <v>11.59156521949556</v>
       </c>
       <c r="L2">
-        <v>6.01046881454925</v>
+        <v>8.687228697921983</v>
       </c>
       <c r="M2">
-        <v>9.419304886203014</v>
+        <v>13.7878532964395</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.61252762794085</v>
+        <v>19.72122102775513</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80880780484731</v>
+        <v>12.79774399502409</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.886037522802639</v>
+        <v>4.579613810151755</v>
       </c>
       <c r="E3">
-        <v>12.18875531599418</v>
+        <v>18.96171057244061</v>
       </c>
       <c r="F3">
-        <v>15.51813180612998</v>
+        <v>21.95874607700489</v>
       </c>
       <c r="G3">
-        <v>18.35534071363124</v>
+        <v>24.71339003700496</v>
       </c>
       <c r="H3">
-        <v>8.062565783958444</v>
+        <v>13.36960349124182</v>
       </c>
       <c r="I3">
-        <v>16.67321616926064</v>
+        <v>26.40554002072659</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.96454110775646</v>
+        <v>11.32941378140598</v>
       </c>
       <c r="L3">
-        <v>5.818769697547443</v>
+        <v>8.667293570281389</v>
       </c>
       <c r="M3">
-        <v>9.113830656956791</v>
+        <v>13.75292521618595</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.64224276766199</v>
+        <v>19.79337512190975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.41678651744616</v>
+        <v>12.71750729189402</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.746774478455555</v>
+        <v>4.52594774618751</v>
       </c>
       <c r="E4">
-        <v>12.29887759548112</v>
+        <v>19.00592029064736</v>
       </c>
       <c r="F4">
-        <v>15.37611745030657</v>
+        <v>21.98814564910303</v>
       </c>
       <c r="G4">
-        <v>18.21234154460448</v>
+        <v>24.76159673066486</v>
       </c>
       <c r="H4">
-        <v>8.107029301195578</v>
+        <v>13.39915720482396</v>
       </c>
       <c r="I4">
-        <v>16.89726930378158</v>
+        <v>26.49022742279231</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.57634699607677</v>
+        <v>11.16404145506428</v>
       </c>
       <c r="L4">
-        <v>5.699925655070994</v>
+        <v>8.656186417279226</v>
       </c>
       <c r="M4">
-        <v>8.923767384598904</v>
+        <v>13.73306753378433</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.67173023954514</v>
+        <v>19.84193455135058</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.25330291354932</v>
+        <v>12.68512420312044</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.688651162237336</v>
+        <v>4.503718719450474</v>
       </c>
       <c r="E5">
-        <v>12.34477089652553</v>
+        <v>19.02451905608566</v>
       </c>
       <c r="F5">
-        <v>15.32152942388349</v>
+        <v>22.00163050839801</v>
       </c>
       <c r="G5">
-        <v>18.15949322855898</v>
+        <v>24.78337536232264</v>
       </c>
       <c r="H5">
-        <v>8.126328468863274</v>
+        <v>13.41172068928244</v>
       </c>
       <c r="I5">
-        <v>16.99056381042757</v>
+        <v>26.52583382373307</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.41462985810198</v>
+        <v>11.09560384751504</v>
       </c>
       <c r="L5">
-        <v>5.651278734147579</v>
+        <v>8.651948214560967</v>
       </c>
       <c r="M5">
-        <v>8.845797608924023</v>
+        <v>13.725380101747</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.68646744566625</v>
+        <v>19.8627915475543</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.22593651482913</v>
+        <v>12.67976690126858</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.678918366870029</v>
+        <v>4.500006342303956</v>
       </c>
       <c r="E6">
-        <v>12.35245316400879</v>
+        <v>19.02764262337566</v>
       </c>
       <c r="F6">
-        <v>15.31266317493692</v>
+        <v>22.00396042062719</v>
       </c>
       <c r="G6">
-        <v>18.15104239765904</v>
+        <v>24.78712030132407</v>
       </c>
       <c r="H6">
-        <v>8.129603265784899</v>
+        <v>13.41383826466537</v>
       </c>
       <c r="I6">
-        <v>17.0061755602509</v>
+        <v>26.53181248079676</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.38756851621323</v>
+        <v>11.08417847748703</v>
       </c>
       <c r="L6">
-        <v>5.643189973825121</v>
+        <v>8.651261949212454</v>
       </c>
       <c r="M6">
-        <v>8.832822956109487</v>
+        <v>13.72412820497019</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.68907577197729</v>
+        <v>19.86631932800858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.41459659473118</v>
+        <v>12.71706924913647</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.745996100616242</v>
+        <v>4.525649393412679</v>
       </c>
       <c r="E7">
-        <v>12.29949239661679</v>
+        <v>19.00616875759887</v>
       </c>
       <c r="F7">
-        <v>15.37536797158977</v>
+        <v>21.98832142396421</v>
       </c>
       <c r="G7">
-        <v>18.21160698286175</v>
+        <v>24.76188181668681</v>
       </c>
       <c r="H7">
-        <v>8.107284848056413</v>
+        <v>13.39932453424428</v>
       </c>
       <c r="I7">
-        <v>16.89851944401195</v>
+        <v>26.49070318397438</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.57418009150348</v>
+        <v>11.1631226364834</v>
       </c>
       <c r="L7">
-        <v>5.699270368708111</v>
+        <v>8.656128089103115</v>
       </c>
       <c r="M7">
-        <v>8.922717798598139</v>
+        <v>13.73296221278554</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.67191811450864</v>
+        <v>19.84221151152418</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.21391333516993</v>
+        <v>12.88434795779461</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.029825686027433</v>
+        <v>4.635607932415271</v>
       </c>
       <c r="E8">
-        <v>12.07469757875959</v>
+        <v>18.91652271656405</v>
       </c>
       <c r="F8">
-        <v>15.68090717995452</v>
+        <v>21.93252411848104</v>
       </c>
       <c r="G8">
-        <v>18.52673373865624</v>
+        <v>24.66926858397772</v>
       </c>
       <c r="H8">
-        <v>8.019258929436015</v>
+        <v>13.33984425880334</v>
       </c>
       <c r="I8">
-        <v>16.44093782595549</v>
+        <v>26.31890895438804</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.36632581276656</v>
+        <v>11.50212679781438</v>
       </c>
       <c r="L8">
-        <v>5.944647799563904</v>
+        <v>8.68012182570348</v>
       </c>
       <c r="M8">
-        <v>9.314560579899055</v>
+        <v>13.77548373046485</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.62037636201947</v>
+        <v>19.74521531082531</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.65297237724677</v>
+        <v>13.21986808277146</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.54009461358326</v>
+        <v>4.838774731061203</v>
       </c>
       <c r="E9">
-        <v>11.66528387170764</v>
+        <v>18.75899587883315</v>
       </c>
       <c r="F9">
-        <v>16.3831877577482</v>
+        <v>21.87076171747729</v>
       </c>
       <c r="G9">
-        <v>19.32128737254214</v>
+        <v>24.55561833817346</v>
       </c>
       <c r="H9">
-        <v>7.886866258190264</v>
+        <v>13.23960168853439</v>
       </c>
       <c r="I9">
-        <v>15.60660870188555</v>
+        <v>26.01640825931438</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.79882834949142</v>
+        <v>12.12938668181021</v>
       </c>
       <c r="L9">
-        <v>6.413994760125351</v>
+        <v>8.736018935819398</v>
       </c>
       <c r="M9">
-        <v>10.0586810783843</v>
+        <v>13.87122527646213</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.61321096594523</v>
+        <v>19.58885385445796</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.62624890088849</v>
+        <v>13.469025554495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.885008695791533</v>
+        <v>4.979653613540584</v>
       </c>
       <c r="E10">
-        <v>11.38304086157298</v>
+        <v>18.65429416797067</v>
       </c>
       <c r="F10">
-        <v>16.96059038155335</v>
+        <v>21.85453622047907</v>
       </c>
       <c r="G10">
-        <v>20.01460975586809</v>
+        <v>24.51396373990518</v>
       </c>
       <c r="H10">
-        <v>7.81671940390197</v>
+        <v>13.175939077811</v>
       </c>
       <c r="I10">
-        <v>15.03241969143301</v>
+        <v>25.81497135463927</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.77193620730535</v>
+        <v>12.56423624698955</v>
       </c>
       <c r="L10">
-        <v>6.748271863284744</v>
+        <v>8.782273343948292</v>
       </c>
       <c r="M10">
-        <v>10.5853051287596</v>
+        <v>13.94875560977929</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.67152044821133</v>
+        <v>19.49470807059359</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.04998068159492</v>
+        <v>13.58254293148735</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.035143405700373</v>
+        <v>5.041769839630732</v>
       </c>
       <c r="E11">
-        <v>11.25853920562334</v>
+        <v>18.60903636715469</v>
       </c>
       <c r="F11">
-        <v>17.23613821127858</v>
+        <v>21.8534918700582</v>
       </c>
       <c r="G11">
-        <v>20.35378560515118</v>
+        <v>24.50416501299729</v>
       </c>
       <c r="H11">
-        <v>7.791298506957784</v>
+        <v>13.14914334838892</v>
       </c>
       <c r="I11">
-        <v>14.77979952543332</v>
+        <v>25.72781904011353</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.19652874022162</v>
+        <v>12.75583128938513</v>
       </c>
       <c r="L11">
-        <v>6.897463526728777</v>
+        <v>8.804394206953599</v>
       </c>
       <c r="M11">
-        <v>10.81959290410049</v>
+        <v>13.98550846865672</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.71315840204822</v>
+        <v>19.45640058874822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.20765679561912</v>
+        <v>13.625520368463</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.091005517410276</v>
+        <v>5.064996611390225</v>
       </c>
       <c r="E12">
-        <v>11.21194286911323</v>
+        <v>18.59223777807408</v>
       </c>
       <c r="F12">
-        <v>17.34228668989235</v>
+        <v>21.85400694914286</v>
       </c>
       <c r="G12">
-        <v>20.48561543313737</v>
+        <v>24.50177366342345</v>
       </c>
       <c r="H12">
-        <v>7.782657992960308</v>
+        <v>13.13930765960868</v>
       </c>
       <c r="I12">
-        <v>14.68539534429277</v>
+        <v>25.69545894756646</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.35465641477865</v>
+        <v>12.82744507837354</v>
       </c>
       <c r="L12">
-        <v>6.953504080160427</v>
+        <v>8.812921681026745</v>
       </c>
       <c r="M12">
-        <v>10.90748783416278</v>
+        <v>13.99963210901612</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.73120148388279</v>
+        <v>19.44254606107686</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.1738227619028</v>
+        <v>13.61626535362571</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.079018908635652</v>
+        <v>5.060007626006639</v>
       </c>
       <c r="E13">
-        <v>11.22195393371665</v>
+        <v>18.59584057606478</v>
       </c>
       <c r="F13">
-        <v>17.31934625219148</v>
+        <v>21.85385553908128</v>
       </c>
       <c r="G13">
-        <v>20.45707326713531</v>
+        <v>24.50222996958009</v>
       </c>
       <c r="H13">
-        <v>7.784474174855774</v>
+        <v>13.14141210738149</v>
       </c>
       <c r="I13">
-        <v>14.70567059340392</v>
+        <v>25.70239972356326</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.3207197037796</v>
+        <v>12.81206420573474</v>
       </c>
       <c r="L13">
-        <v>6.941455593651471</v>
+        <v>8.811078503415626</v>
       </c>
       <c r="M13">
-        <v>10.8885957286556</v>
+        <v>13.99658128064699</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.72721278162933</v>
+        <v>19.44550087103587</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.06300876772364</v>
+        <v>13.5860790881716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.039759155553984</v>
+        <v>5.043686704022219</v>
       </c>
       <c r="E14">
-        <v>11.25469473676436</v>
+        <v>18.60764754022036</v>
       </c>
       <c r="F14">
-        <v>17.24483523027752</v>
+        <v>21.85351600354716</v>
       </c>
       <c r="G14">
-        <v>20.36456356200868</v>
+        <v>24.5039418209805</v>
       </c>
       <c r="H14">
-        <v>7.790567579574861</v>
+        <v>13.14832792203997</v>
       </c>
       <c r="I14">
-        <v>14.77200747326767</v>
+        <v>25.72514388828949</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.20959151668335</v>
+        <v>12.76174206236915</v>
       </c>
       <c r="L14">
-        <v>6.902083358098066</v>
+        <v>8.805092771538796</v>
       </c>
       <c r="M14">
-        <v>10.82684094961631</v>
+        <v>13.98666634027291</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.71459663594495</v>
+        <v>19.45524769809154</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.99476853377836</v>
+        <v>13.56758693344931</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.015581960140675</v>
+        <v>5.033650870193103</v>
       </c>
       <c r="E15">
-        <v>11.27482071910306</v>
+        <v>18.61492382388394</v>
       </c>
       <c r="F15">
-        <v>17.19942860354512</v>
+        <v>21.85342657662041</v>
       </c>
       <c r="G15">
-        <v>20.30833929854349</v>
+        <v>24.50516226069878</v>
       </c>
       <c r="H15">
-        <v>7.794429951194385</v>
+        <v>13.15260459480618</v>
       </c>
       <c r="I15">
-        <v>14.81280531884114</v>
+        <v>25.73915897362757</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.14117489170899</v>
+        <v>12.73079473672753</v>
       </c>
       <c r="L15">
-        <v>6.877906310119958</v>
+        <v>8.801445839442339</v>
       </c>
       <c r="M15">
-        <v>10.78890514495842</v>
+        <v>13.98061977795631</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.70716821973427</v>
+        <v>19.46130282950209</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.59817000868579</v>
+        <v>13.46160750085929</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.875059272223709</v>
+        <v>4.975553483535179</v>
       </c>
       <c r="E16">
-        <v>11.39125480966277</v>
+        <v>18.65729946738486</v>
       </c>
       <c r="F16">
-        <v>16.94283788522687</v>
+        <v>21.85473194275591</v>
       </c>
       <c r="G16">
-        <v>19.99292020505798</v>
+        <v>24.51478855645035</v>
       </c>
       <c r="H16">
-        <v>7.818515752425882</v>
+        <v>13.17773380030892</v>
       </c>
       <c r="I16">
-        <v>15.04910356026583</v>
+        <v>25.82075699130233</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.74381917585269</v>
+        <v>12.55158599374293</v>
       </c>
       <c r="L16">
-        <v>6.738460311913726</v>
+        <v>8.780849039614994</v>
       </c>
       <c r="M16">
-        <v>10.56988185302351</v>
+        <v>13.94638296943444</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.6691122667045</v>
+        <v>19.49730265619909</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.34996093238603</v>
+        <v>13.39661272979247</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.787106043649485</v>
+        <v>4.939399212426568</v>
       </c>
       <c r="E17">
-        <v>11.46367317995696</v>
+        <v>18.68390191124465</v>
       </c>
       <c r="F17">
-        <v>16.78869438749052</v>
+        <v>21.85715549389888</v>
       </c>
       <c r="G17">
-        <v>19.80549549115713</v>
+        <v>24.523040391449</v>
       </c>
       <c r="H17">
-        <v>7.834990445314899</v>
+        <v>13.19370418002674</v>
       </c>
       <c r="I17">
-        <v>15.19627752540895</v>
+        <v>25.87196136240808</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.49537966150667</v>
+        <v>12.44002115306293</v>
       </c>
       <c r="L17">
-        <v>6.652147261868063</v>
+        <v>8.768486947147176</v>
       </c>
       <c r="M17">
-        <v>10.43411698744801</v>
+        <v>13.92575477700349</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.64971103271697</v>
+        <v>19.52054629486856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.20540958326433</v>
+        <v>13.35924789207137</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.735881377410741</v>
+        <v>4.918419444572051</v>
       </c>
       <c r="E18">
-        <v>11.50569325708751</v>
+        <v>18.69942623998398</v>
       </c>
       <c r="F18">
-        <v>16.70125101608109</v>
+        <v>21.85914598407342</v>
       </c>
       <c r="G18">
-        <v>19.69993468407411</v>
+        <v>24.52864775781297</v>
       </c>
       <c r="H18">
-        <v>7.845073762520307</v>
+        <v>13.20309367333375</v>
       </c>
       <c r="I18">
-        <v>15.28173403156974</v>
+        <v>25.9018347763935</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.35078468559814</v>
+        <v>12.3752689622582</v>
       </c>
       <c r="L18">
-        <v>6.602234035763928</v>
+        <v>8.761478483705369</v>
       </c>
       <c r="M18">
-        <v>10.35553538653952</v>
+        <v>13.91403010958697</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.63996852583346</v>
+        <v>19.53434075779291</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.15616154980374</v>
+        <v>13.34660101650947</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.718428891801572</v>
+        <v>4.911284696004016</v>
       </c>
       <c r="E19">
-        <v>11.51998385739655</v>
+        <v>18.70472090896199</v>
       </c>
       <c r="F19">
-        <v>16.67185444879675</v>
+        <v>21.85992239190136</v>
       </c>
       <c r="G19">
-        <v>19.66457914030979</v>
+        <v>24.53069409039991</v>
       </c>
       <c r="H19">
-        <v>7.848590571960661</v>
+        <v>13.20630778963508</v>
       </c>
       <c r="I19">
-        <v>15.31080594213865</v>
+        <v>25.9120219426949</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.30153740696583</v>
+        <v>12.35324626527414</v>
       </c>
       <c r="L19">
-        <v>6.585289576820132</v>
+        <v>8.759123169944843</v>
       </c>
       <c r="M19">
-        <v>10.32884645016284</v>
+        <v>13.91008462217561</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.6369099913943</v>
+        <v>19.53908432397959</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.37656865522375</v>
+        <v>13.40352987547948</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.796534806659079</v>
+        <v>4.943267110323806</v>
       </c>
       <c r="E20">
-        <v>11.45592621493708</v>
+        <v>18.68104693495101</v>
       </c>
       <c r="F20">
-        <v>16.80497772744069</v>
+        <v>21.85683576676891</v>
       </c>
       <c r="G20">
-        <v>19.82521540910145</v>
+        <v>24.52207281704104</v>
       </c>
       <c r="H20">
-        <v>7.833173436661769</v>
+        <v>13.19198301822398</v>
       </c>
       <c r="I20">
-        <v>15.18052704433432</v>
+        <v>25.86646690712913</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.52200277445027</v>
+        <v>12.45195809885128</v>
       </c>
       <c r="L20">
-        <v>6.661363517705371</v>
+        <v>8.769792399929175</v>
       </c>
       <c r="M20">
-        <v>10.44862094430318</v>
+        <v>13.92793623288635</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.65162896271386</v>
+        <v>19.51802793632565</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.09563333530328</v>
+        <v>13.59494604390113</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.051317702550918</v>
+        <v>5.048488660122858</v>
       </c>
       <c r="E21">
-        <v>11.24506312934142</v>
+        <v>18.60417034475197</v>
       </c>
       <c r="F21">
-        <v>17.26667234605539</v>
+        <v>21.85359103021531</v>
       </c>
       <c r="G21">
-        <v>20.39164415033767</v>
+        <v>24.5034031844587</v>
       </c>
       <c r="H21">
-        <v>7.78875061298254</v>
+        <v>13.1462881318573</v>
       </c>
       <c r="I21">
-        <v>14.75248837115789</v>
+        <v>25.71844595128253</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.24230504146344</v>
+        <v>12.77654871996638</v>
       </c>
       <c r="L21">
-        <v>6.913660595992528</v>
+        <v>8.806846870164819</v>
       </c>
       <c r="M21">
-        <v>10.84500269203467</v>
+        <v>13.98957306325654</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.71823974487313</v>
+        <v>19.45236711883384</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.549355634327</v>
+        <v>13.71997888641063</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.212053279386507</v>
+        <v>5.115530824802033</v>
       </c>
       <c r="E22">
-        <v>11.11045151489365</v>
+        <v>18.55590558184269</v>
       </c>
       <c r="F22">
-        <v>17.57891093273312</v>
+        <v>21.85677696393389</v>
       </c>
       <c r="G22">
-        <v>20.78158446779837</v>
+        <v>24.49889159782144</v>
       </c>
       <c r="H22">
-        <v>7.765489898925042</v>
+        <v>13.11823821313239</v>
       </c>
       <c r="I22">
-        <v>14.48008660788509</v>
+        <v>25.62545036909769</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.69756322512141</v>
+        <v>12.98319555388933</v>
       </c>
       <c r="L22">
-        <v>7.075883148360476</v>
+        <v>8.831940807512973</v>
       </c>
       <c r="M22">
-        <v>11.09922918361612</v>
+        <v>14.03105425487012</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.77508285317471</v>
+        <v>19.41325323645947</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.30869263737025</v>
+        <v>13.65326395092094</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.126799327140467</v>
+        <v>5.079910857641599</v>
       </c>
       <c r="E23">
-        <v>11.18200681822556</v>
+        <v>18.58148483887982</v>
       </c>
       <c r="F23">
-        <v>17.41131950831508</v>
+        <v>21.85459143271386</v>
       </c>
       <c r="G23">
-        <v>20.57167141075345</v>
+        <v>24.50059506381364</v>
       </c>
       <c r="H23">
-        <v>7.777358447617949</v>
+        <v>13.13304297392479</v>
       </c>
       <c r="I23">
-        <v>14.62479075303676</v>
+        <v>25.67474186079151</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.45601734254247</v>
+        <v>12.87342056011261</v>
       </c>
       <c r="L23">
-        <v>6.989558488511571</v>
+        <v>8.818468995917367</v>
       </c>
       <c r="M23">
-        <v>10.96400541309294</v>
+        <v>14.00880780487093</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.7434940172768</v>
+        <v>19.43378086999845</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.36454507057034</v>
+        <v>13.40040262656361</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.792274114756115</v>
+        <v>4.941519037647947</v>
       </c>
       <c r="E24">
-        <v>11.45942741541743</v>
+        <v>18.68233695249139</v>
       </c>
       <c r="F24">
-        <v>16.79761236350921</v>
+        <v>21.85697845527356</v>
       </c>
       <c r="G24">
-        <v>19.8162932040863</v>
+        <v>24.52250756868029</v>
       </c>
       <c r="H24">
-        <v>7.833993004625636</v>
+        <v>13.19276050785005</v>
       </c>
       <c r="I24">
-        <v>15.18764520892557</v>
+        <v>25.86894959416681</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.50997195447963</v>
+        <v>12.4465633087434</v>
       </c>
       <c r="L24">
-        <v>6.657197750668828</v>
+        <v>8.769201897052614</v>
       </c>
       <c r="M24">
-        <v>10.44206534668059</v>
+        <v>13.92694957638879</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.65075747780656</v>
+        <v>19.5191651426213</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.2780901912447</v>
+        <v>13.12849675972332</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.407212750354259</v>
+        <v>4.785231474155397</v>
       </c>
       <c r="E25">
-        <v>11.77273951990279</v>
+        <v>18.79966605329109</v>
       </c>
       <c r="F25">
-        <v>16.18227420877308</v>
+        <v>21.88235526883103</v>
       </c>
       <c r="G25">
-        <v>19.08715012356175</v>
+        <v>24.5790409122325</v>
       </c>
       <c r="H25">
-        <v>7.918115048935228</v>
+        <v>13.26496559905321</v>
       </c>
       <c r="I25">
-        <v>15.82554663294204</v>
+        <v>26.09457727709473</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.42488950093932</v>
+        <v>11.96405083400017</v>
       </c>
       <c r="L25">
-        <v>6.288657849839935</v>
+        <v>8.71997075927777</v>
       </c>
       <c r="M25">
-        <v>9.860557614542676</v>
+        <v>13.84403617928549</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.60443573742809</v>
+        <v>19.6275197161305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.93024956307966</v>
+        <v>11.42206474563776</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.664589018196449</v>
+        <v>5.103672169429191</v>
       </c>
       <c r="E2">
-        <v>18.89347335491468</v>
+        <v>12.01593675524238</v>
       </c>
       <c r="F2">
-        <v>21.92062565984711</v>
+        <v>15.7707016013276</v>
       </c>
       <c r="G2">
-        <v>24.64875663200993</v>
+        <v>18.62394316897392</v>
       </c>
       <c r="H2">
-        <v>13.32483823795075</v>
+        <v>7.998038711075807</v>
       </c>
       <c r="I2">
-        <v>26.27469423851406</v>
+        <v>16.32121175856248</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.59156521949556</v>
+        <v>14.57302659911382</v>
       </c>
       <c r="L2">
-        <v>8.687228697921983</v>
+        <v>6.010468814549276</v>
       </c>
       <c r="M2">
-        <v>13.7878532964395</v>
+        <v>9.419304886202998</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.72122102775513</v>
+        <v>12.6125276279407</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79774399502409</v>
+        <v>10.8088078048473</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.579613810151755</v>
+        <v>4.886037522802651</v>
       </c>
       <c r="E3">
-        <v>18.96171057244061</v>
+        <v>12.18875531599411</v>
       </c>
       <c r="F3">
-        <v>21.95874607700489</v>
+        <v>15.51813180612982</v>
       </c>
       <c r="G3">
-        <v>24.71339003700496</v>
+        <v>18.35534071363092</v>
       </c>
       <c r="H3">
-        <v>13.36960349124182</v>
+        <v>8.06256578395838</v>
       </c>
       <c r="I3">
-        <v>26.40554002072659</v>
+        <v>16.67321616926057</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.32941378140598</v>
+        <v>13.96454110775649</v>
       </c>
       <c r="L3">
-        <v>8.667293570281389</v>
+        <v>5.818769697547363</v>
       </c>
       <c r="M3">
-        <v>13.75292521618595</v>
+        <v>9.113830656956756</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.79337512190975</v>
+        <v>12.64224276766189</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71750729189402</v>
+        <v>10.41678651744616</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.52594774618751</v>
+        <v>4.746774478455513</v>
       </c>
       <c r="E4">
-        <v>19.00592029064736</v>
+        <v>12.29887759548139</v>
       </c>
       <c r="F4">
-        <v>21.98814564910303</v>
+        <v>15.37611745030643</v>
       </c>
       <c r="G4">
-        <v>24.76159673066486</v>
+        <v>18.21234154460411</v>
       </c>
       <c r="H4">
-        <v>13.39915720482396</v>
+        <v>8.107029301195453</v>
       </c>
       <c r="I4">
-        <v>26.49022742279231</v>
+        <v>16.89726930378158</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.16404145506428</v>
+        <v>13.57634699607695</v>
       </c>
       <c r="L4">
-        <v>8.656186417279226</v>
+        <v>5.699925655070994</v>
       </c>
       <c r="M4">
-        <v>13.73306753378433</v>
+        <v>8.923767384598905</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.84193455135058</v>
+        <v>12.67173023954494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.68512420312044</v>
+        <v>10.25330291354936</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.503718719450474</v>
+        <v>4.688651162237234</v>
       </c>
       <c r="E5">
-        <v>19.02451905608566</v>
+        <v>12.34477089652554</v>
       </c>
       <c r="F5">
-        <v>22.00163050839801</v>
+        <v>15.3215294238835</v>
       </c>
       <c r="G5">
-        <v>24.78337536232264</v>
+        <v>18.15949322855891</v>
       </c>
       <c r="H5">
-        <v>13.41172068928244</v>
+        <v>8.12632846886328</v>
       </c>
       <c r="I5">
-        <v>26.52583382373307</v>
+        <v>16.99056381042751</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.09560384751504</v>
+        <v>13.41462985810194</v>
       </c>
       <c r="L5">
-        <v>8.651948214560967</v>
+        <v>5.651278734147592</v>
       </c>
       <c r="M5">
-        <v>13.725380101747</v>
+        <v>8.845797608924052</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.8627915475543</v>
+        <v>12.6864674456662</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.67976690126858</v>
+        <v>10.22593651482912</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.500006342303956</v>
+        <v>4.678918366869874</v>
       </c>
       <c r="E6">
-        <v>19.02764262337566</v>
+        <v>12.35245316400879</v>
       </c>
       <c r="F6">
-        <v>22.00396042062719</v>
+        <v>15.31266317493687</v>
       </c>
       <c r="G6">
-        <v>24.78712030132407</v>
+        <v>18.15104239765878</v>
       </c>
       <c r="H6">
-        <v>13.41383826466537</v>
+        <v>8.129603265784773</v>
       </c>
       <c r="I6">
-        <v>26.53181248079676</v>
+        <v>17.00617556025073</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.08417847748703</v>
+        <v>13.38756851621328</v>
       </c>
       <c r="L6">
-        <v>8.651261949212454</v>
+        <v>5.643189973825102</v>
       </c>
       <c r="M6">
-        <v>13.72412820497019</v>
+        <v>8.832822956109464</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.86631932800858</v>
+        <v>12.68907577197718</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.71706924913647</v>
+        <v>10.41459659473117</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.525649393412679</v>
+        <v>4.745996100616271</v>
       </c>
       <c r="E7">
-        <v>19.00616875759887</v>
+        <v>12.29949239661679</v>
       </c>
       <c r="F7">
-        <v>21.98832142396421</v>
+        <v>15.37536797158959</v>
       </c>
       <c r="G7">
-        <v>24.76188181668681</v>
+        <v>18.21160698286145</v>
       </c>
       <c r="H7">
-        <v>13.39932453424428</v>
+        <v>8.107284848056404</v>
       </c>
       <c r="I7">
-        <v>26.49070318397438</v>
+        <v>16.89851944401195</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.1631226364834</v>
+        <v>13.57418009150355</v>
       </c>
       <c r="L7">
-        <v>8.656128089103115</v>
+        <v>5.699270368708044</v>
       </c>
       <c r="M7">
-        <v>13.73296221278554</v>
+        <v>8.922717798598089</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.84221151152418</v>
+        <v>12.67191811450851</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.88434795779461</v>
+        <v>11.21391333516994</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.635607932415271</v>
+        <v>5.029825686027234</v>
       </c>
       <c r="E8">
-        <v>18.91652271656405</v>
+        <v>12.0746975787596</v>
       </c>
       <c r="F8">
-        <v>21.93252411848104</v>
+        <v>15.68090717995461</v>
       </c>
       <c r="G8">
-        <v>24.66926858397772</v>
+        <v>18.52673373865625</v>
       </c>
       <c r="H8">
-        <v>13.33984425880334</v>
+        <v>8.019258929436017</v>
       </c>
       <c r="I8">
-        <v>26.31890895438804</v>
+        <v>16.44093782595553</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.50212679781438</v>
+        <v>14.36632581276656</v>
       </c>
       <c r="L8">
-        <v>8.68012182570348</v>
+        <v>5.944647799563837</v>
       </c>
       <c r="M8">
-        <v>13.77548373046485</v>
+        <v>9.314560579899037</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.74521531082531</v>
+        <v>12.62037636201948</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.21986808277146</v>
+        <v>12.6529723772468</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.838774731061203</v>
+        <v>5.540094613583212</v>
       </c>
       <c r="E9">
-        <v>18.75899587883315</v>
+        <v>11.66528387170757</v>
       </c>
       <c r="F9">
-        <v>21.87076171747729</v>
+        <v>16.38318775774805</v>
       </c>
       <c r="G9">
-        <v>24.55561833817346</v>
+        <v>19.3212873725419</v>
       </c>
       <c r="H9">
-        <v>13.23960168853439</v>
+        <v>7.886866258190158</v>
       </c>
       <c r="I9">
-        <v>26.01640825931438</v>
+        <v>15.60660870188536</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.12938668181021</v>
+        <v>15.79882834949144</v>
       </c>
       <c r="L9">
-        <v>8.736018935819398</v>
+        <v>6.413994760125311</v>
       </c>
       <c r="M9">
-        <v>13.87122527646213</v>
+        <v>10.05868107838428</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.58885385445796</v>
+        <v>12.61321096594505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.469025554495</v>
+        <v>13.62624890088851</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.979653613540584</v>
+        <v>5.885008695791486</v>
       </c>
       <c r="E10">
-        <v>18.65429416797067</v>
+        <v>11.38304086157324</v>
       </c>
       <c r="F10">
-        <v>21.85453622047907</v>
+        <v>16.96059038155331</v>
       </c>
       <c r="G10">
-        <v>24.51396373990518</v>
+        <v>20.01460975586789</v>
       </c>
       <c r="H10">
-        <v>13.175939077811</v>
+        <v>7.81671940390197</v>
       </c>
       <c r="I10">
-        <v>25.81497135463927</v>
+        <v>15.03241969143308</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.56423624698955</v>
+        <v>16.77193620730544</v>
       </c>
       <c r="L10">
-        <v>8.782273343948292</v>
+        <v>6.748271863284748</v>
       </c>
       <c r="M10">
-        <v>13.94875560977929</v>
+        <v>10.58530512875962</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.49470807059359</v>
+        <v>12.67152044821123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.58254293148735</v>
+        <v>14.04998068159494</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.041769839630732</v>
+        <v>6.035143405700282</v>
       </c>
       <c r="E11">
-        <v>18.60903636715469</v>
+        <v>11.25853920562347</v>
       </c>
       <c r="F11">
-        <v>21.8534918700582</v>
+        <v>17.2361382112786</v>
       </c>
       <c r="G11">
-        <v>24.50416501299729</v>
+        <v>20.35378560515113</v>
       </c>
       <c r="H11">
-        <v>13.14914334838892</v>
+        <v>7.791298506957841</v>
       </c>
       <c r="I11">
-        <v>25.72781904011353</v>
+        <v>14.7797995254334</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.75583128938513</v>
+        <v>17.19652874022169</v>
       </c>
       <c r="L11">
-        <v>8.804394206953599</v>
+        <v>6.897463526728743</v>
       </c>
       <c r="M11">
-        <v>13.98550846865672</v>
+        <v>10.81959290410049</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.45640058874822</v>
+        <v>12.71315840204822</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.625520368463</v>
+        <v>14.20765679561914</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.064996611390225</v>
+        <v>6.09100551741037</v>
       </c>
       <c r="E12">
-        <v>18.59223777807408</v>
+        <v>11.21194286911323</v>
       </c>
       <c r="F12">
-        <v>21.85400694914286</v>
+        <v>17.34228668989232</v>
       </c>
       <c r="G12">
-        <v>24.50177366342345</v>
+        <v>20.48561543313734</v>
       </c>
       <c r="H12">
-        <v>13.13930765960868</v>
+        <v>7.782657992960315</v>
       </c>
       <c r="I12">
-        <v>25.69545894756646</v>
+        <v>14.68539534429278</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.82744507837354</v>
+        <v>17.35465641477869</v>
       </c>
       <c r="L12">
-        <v>8.812921681026745</v>
+        <v>6.953504080160442</v>
       </c>
       <c r="M12">
-        <v>13.99963210901612</v>
+        <v>10.90748783416278</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.44254606107686</v>
+        <v>12.73120148388276</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.61626535362571</v>
+        <v>14.17382276190281</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.060007626006639</v>
+        <v>6.079018908635558</v>
       </c>
       <c r="E13">
-        <v>18.59584057606478</v>
+        <v>11.22195393371679</v>
       </c>
       <c r="F13">
-        <v>21.85385553908128</v>
+        <v>17.31934625219145</v>
       </c>
       <c r="G13">
-        <v>24.50222996958009</v>
+        <v>20.45707326713523</v>
       </c>
       <c r="H13">
-        <v>13.14141210738149</v>
+        <v>7.784474174855725</v>
       </c>
       <c r="I13">
-        <v>25.70239972356326</v>
+        <v>14.70567059340393</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.81206420573474</v>
+        <v>17.3207197037797</v>
       </c>
       <c r="L13">
-        <v>8.811078503415626</v>
+        <v>6.941455593651437</v>
       </c>
       <c r="M13">
-        <v>13.99658128064699</v>
+        <v>10.88859572865559</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.44550087103587</v>
+        <v>12.72721278162925</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.5860790881716</v>
+        <v>14.06300876772367</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.043686704022219</v>
+        <v>6.039759155554077</v>
       </c>
       <c r="E14">
-        <v>18.60764754022036</v>
+        <v>11.25469473676443</v>
       </c>
       <c r="F14">
-        <v>21.85351600354716</v>
+        <v>17.24483523027742</v>
       </c>
       <c r="G14">
-        <v>24.5039418209805</v>
+        <v>20.36456356200855</v>
       </c>
       <c r="H14">
-        <v>13.14832792203997</v>
+        <v>7.790567579574809</v>
       </c>
       <c r="I14">
-        <v>25.72514388828949</v>
+        <v>14.7720074732676</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.76174206236915</v>
+        <v>17.20959151668337</v>
       </c>
       <c r="L14">
-        <v>8.805092771538796</v>
+        <v>6.902083358098063</v>
       </c>
       <c r="M14">
-        <v>13.98666634027291</v>
+        <v>10.82684094961631</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.45524769809154</v>
+        <v>12.71459663594485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.56758693344931</v>
+        <v>13.99476853377836</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.033650870193103</v>
+        <v>6.015581960140564</v>
       </c>
       <c r="E15">
-        <v>18.61492382388394</v>
+        <v>11.27482071910313</v>
       </c>
       <c r="F15">
-        <v>21.85342657662041</v>
+        <v>17.19942860354505</v>
       </c>
       <c r="G15">
-        <v>24.50516226069878</v>
+        <v>20.30833929854344</v>
       </c>
       <c r="H15">
-        <v>13.15260459480618</v>
+        <v>7.794429951194336</v>
       </c>
       <c r="I15">
-        <v>25.73915897362757</v>
+        <v>14.81280531884105</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.73079473672753</v>
+        <v>17.14117489170903</v>
       </c>
       <c r="L15">
-        <v>8.801445839442339</v>
+        <v>6.87790631011995</v>
       </c>
       <c r="M15">
-        <v>13.98061977795631</v>
+        <v>10.78890514495841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.46130282950209</v>
+        <v>12.70716821973417</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.46160750085929</v>
+        <v>13.59817000868579</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.975553483535179</v>
+        <v>5.875059272223615</v>
       </c>
       <c r="E16">
-        <v>18.65729946738486</v>
+        <v>11.39125480966284</v>
       </c>
       <c r="F16">
-        <v>21.85473194275591</v>
+        <v>16.94283788522683</v>
       </c>
       <c r="G16">
-        <v>24.51478855645035</v>
+        <v>19.99292020505778</v>
       </c>
       <c r="H16">
-        <v>13.17773380030892</v>
+        <v>7.818515752425894</v>
       </c>
       <c r="I16">
-        <v>25.82075699130233</v>
+        <v>15.04910356026583</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.55158599374293</v>
+        <v>16.74381917585275</v>
       </c>
       <c r="L16">
-        <v>8.780849039614994</v>
+        <v>6.738460311913713</v>
       </c>
       <c r="M16">
-        <v>13.94638296943444</v>
+        <v>10.5698818530235</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.49730265619909</v>
+        <v>12.66911226670443</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.39661272979247</v>
+        <v>13.34996093238608</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.939399212426568</v>
+        <v>5.787106043649485</v>
       </c>
       <c r="E17">
-        <v>18.68390191124465</v>
+        <v>11.4636731799571</v>
       </c>
       <c r="F17">
-        <v>21.85715549389888</v>
+        <v>16.78869438749038</v>
       </c>
       <c r="G17">
-        <v>24.523040391449</v>
+        <v>19.80549549115696</v>
       </c>
       <c r="H17">
-        <v>13.19370418002674</v>
+        <v>7.834990445314845</v>
       </c>
       <c r="I17">
-        <v>25.87196136240808</v>
+        <v>15.19627752540885</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.44002115306293</v>
+        <v>16.49537966150671</v>
       </c>
       <c r="L17">
-        <v>8.768486947147176</v>
+        <v>6.652147261868052</v>
       </c>
       <c r="M17">
-        <v>13.92575477700349</v>
+        <v>10.43411698744804</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.52054629486856</v>
+        <v>12.64971103271681</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.35924789207137</v>
+        <v>13.20540958326435</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.918419444572051</v>
+        <v>5.735881377410787</v>
       </c>
       <c r="E18">
-        <v>18.69942623998398</v>
+        <v>11.50569325708764</v>
       </c>
       <c r="F18">
-        <v>21.85914598407342</v>
+        <v>16.701251016081</v>
       </c>
       <c r="G18">
-        <v>24.52864775781297</v>
+        <v>19.69993468407414</v>
       </c>
       <c r="H18">
-        <v>13.20309367333375</v>
+        <v>7.845073762520191</v>
       </c>
       <c r="I18">
-        <v>25.9018347763935</v>
+        <v>15.28173403156972</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.3752689622582</v>
+        <v>16.35078468559823</v>
       </c>
       <c r="L18">
-        <v>8.761478483705369</v>
+        <v>6.602234035763957</v>
       </c>
       <c r="M18">
-        <v>13.91403010958697</v>
+        <v>10.35553538653952</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.53434075779291</v>
+        <v>12.63996852583339</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.34660101650947</v>
+        <v>13.15616154980374</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.911284696004016</v>
+        <v>5.718428891801618</v>
       </c>
       <c r="E19">
-        <v>18.70472090896199</v>
+        <v>11.51998385739655</v>
       </c>
       <c r="F19">
-        <v>21.85992239190136</v>
+        <v>16.67185444879662</v>
       </c>
       <c r="G19">
-        <v>24.53069409039991</v>
+        <v>19.66457914030961</v>
       </c>
       <c r="H19">
-        <v>13.20630778963508</v>
+        <v>7.848590571960592</v>
       </c>
       <c r="I19">
-        <v>25.9120219426949</v>
+        <v>15.31080594213852</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.35324626527414</v>
+        <v>16.30153740696582</v>
       </c>
       <c r="L19">
-        <v>8.759123169944843</v>
+        <v>6.585289576820111</v>
       </c>
       <c r="M19">
-        <v>13.91008462217561</v>
+        <v>10.32884645016284</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.53908432397959</v>
+        <v>12.63690999139418</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.40352987547948</v>
+        <v>13.37656865522376</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.943267110323806</v>
+        <v>5.796534806659119</v>
       </c>
       <c r="E20">
-        <v>18.68104693495101</v>
+        <v>11.45592621493695</v>
       </c>
       <c r="F20">
-        <v>21.85683576676891</v>
+        <v>16.80497772744059</v>
       </c>
       <c r="G20">
-        <v>24.52207281704104</v>
+        <v>19.82521540910134</v>
       </c>
       <c r="H20">
-        <v>13.19198301822398</v>
+        <v>7.833173436661715</v>
       </c>
       <c r="I20">
-        <v>25.86646690712913</v>
+        <v>15.18052704433414</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.45195809885128</v>
+        <v>16.52200277445024</v>
       </c>
       <c r="L20">
-        <v>8.769792399929175</v>
+        <v>6.661363517705358</v>
       </c>
       <c r="M20">
-        <v>13.92793623288635</v>
+        <v>10.44862094430316</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.51802793632565</v>
+        <v>12.65162896271375</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.59494604390113</v>
+        <v>14.09563333530328</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.048488660122858</v>
+        <v>6.051317702551011</v>
       </c>
       <c r="E21">
-        <v>18.60417034475197</v>
+        <v>11.2450631293413</v>
       </c>
       <c r="F21">
-        <v>21.85359103021531</v>
+        <v>17.26667234605534</v>
       </c>
       <c r="G21">
-        <v>24.5034031844587</v>
+        <v>20.39164415033768</v>
       </c>
       <c r="H21">
-        <v>13.1462881318573</v>
+        <v>7.788750612982456</v>
       </c>
       <c r="I21">
-        <v>25.71844595128253</v>
+        <v>14.75248837115783</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.77654871996638</v>
+        <v>17.24230504146352</v>
       </c>
       <c r="L21">
-        <v>8.806846870164819</v>
+        <v>6.913660595992503</v>
       </c>
       <c r="M21">
-        <v>13.98957306325654</v>
+        <v>10.84500269203461</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.45236711883384</v>
+        <v>12.71823974487307</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.71997888641063</v>
+        <v>14.54935563432701</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.115530824802033</v>
+        <v>6.212053279386507</v>
       </c>
       <c r="E22">
-        <v>18.55590558184269</v>
+        <v>11.11045151489365</v>
       </c>
       <c r="F22">
-        <v>21.85677696393389</v>
+        <v>17.57891093273302</v>
       </c>
       <c r="G22">
-        <v>24.49889159782144</v>
+        <v>20.78158446779823</v>
       </c>
       <c r="H22">
-        <v>13.11823821313239</v>
+        <v>7.765489898925</v>
       </c>
       <c r="I22">
-        <v>25.62545036909769</v>
+        <v>14.48008660788498</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.98319555388933</v>
+        <v>17.69756322512148</v>
       </c>
       <c r="L22">
-        <v>8.831940807512973</v>
+        <v>7.075883148360463</v>
       </c>
       <c r="M22">
-        <v>14.03105425487012</v>
+        <v>11.09922918361607</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.41325323645947</v>
+        <v>12.7750828531746</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.65326395092094</v>
+        <v>14.30869263737021</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.079910857641599</v>
+        <v>6.126799327140597</v>
       </c>
       <c r="E23">
-        <v>18.58148483887982</v>
+        <v>11.18200681822569</v>
       </c>
       <c r="F23">
-        <v>21.85459143271386</v>
+        <v>17.41131950831504</v>
       </c>
       <c r="G23">
-        <v>24.50059506381364</v>
+        <v>20.57167141075353</v>
       </c>
       <c r="H23">
-        <v>13.13304297392479</v>
+        <v>7.777358447617866</v>
       </c>
       <c r="I23">
-        <v>25.67474186079151</v>
+        <v>14.62479075303678</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.87342056011261</v>
+        <v>17.45601734254247</v>
       </c>
       <c r="L23">
-        <v>8.818468995917367</v>
+        <v>6.989558488511618</v>
       </c>
       <c r="M23">
-        <v>14.00880780487093</v>
+        <v>10.96400541309296</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.43378086999845</v>
+        <v>12.74349401727683</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.40040262656361</v>
+        <v>13.36454507057036</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.941519037647947</v>
+        <v>5.792274114756014</v>
       </c>
       <c r="E24">
-        <v>18.68233695249139</v>
+        <v>11.45942741541749</v>
       </c>
       <c r="F24">
-        <v>21.85697845527356</v>
+        <v>16.79761236350917</v>
       </c>
       <c r="G24">
-        <v>24.52250756868029</v>
+        <v>19.81629320408615</v>
       </c>
       <c r="H24">
-        <v>13.19276050785005</v>
+        <v>7.833993004625636</v>
       </c>
       <c r="I24">
-        <v>25.86894959416681</v>
+        <v>15.18764520892558</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.4465633087434</v>
+        <v>16.50997195447973</v>
       </c>
       <c r="L24">
-        <v>8.769201897052614</v>
+        <v>6.657197750668805</v>
       </c>
       <c r="M24">
-        <v>13.92694957638879</v>
+        <v>10.44206534668056</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.5191651426213</v>
+        <v>12.65075747780648</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.12849675972332</v>
+        <v>12.2780901912447</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.785231474155397</v>
+        <v>5.407212750354314</v>
       </c>
       <c r="E25">
-        <v>18.79966605329109</v>
+        <v>11.77273951990279</v>
       </c>
       <c r="F25">
-        <v>21.88235526883103</v>
+        <v>16.18227420877293</v>
       </c>
       <c r="G25">
-        <v>24.5790409122325</v>
+        <v>19.0871501235616</v>
       </c>
       <c r="H25">
-        <v>13.26496559905321</v>
+        <v>7.918115048935108</v>
       </c>
       <c r="I25">
-        <v>26.09457727709473</v>
+        <v>15.82554663294194</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.96405083400017</v>
+        <v>15.42488950093933</v>
       </c>
       <c r="L25">
-        <v>8.71997075927777</v>
+        <v>6.288657849839923</v>
       </c>
       <c r="M25">
-        <v>13.84403617928549</v>
+        <v>9.860557614542669</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.6275197161305</v>
+        <v>12.60443573742799</v>
       </c>
     </row>
   </sheetData>
